--- a/cleaned.xlsx
+++ b/cleaned.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smarnita/Documents/flushPackagingProject/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC104C0-21CE-504E-B575-4BCFDCA216E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -739,8 +745,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,13 +809,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -847,7 +861,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -881,6 +895,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -915,9 +930,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1090,14 +1106,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1234,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1317,13 +1335,13 @@
         <v>2.8</v>
       </c>
       <c r="AL2">
-        <v>0.2785388127853881</v>
+        <v>0.27853881278538811</v>
       </c>
       <c r="AM2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1424,13 +1442,13 @@
         <v>2.8</v>
       </c>
       <c r="AL3">
-        <v>0.2785388127853881</v>
+        <v>0.27853881278538811</v>
       </c>
       <c r="AM3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1531,13 +1549,13 @@
         <v>2.8</v>
       </c>
       <c r="AL4">
-        <v>0.2785388127853881</v>
+        <v>0.27853881278538811</v>
       </c>
       <c r="AM4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1638,13 +1656,13 @@
         <v>2.5</v>
       </c>
       <c r="AL5">
-        <v>0.1415525114155251</v>
+        <v>0.14155251141552511</v>
       </c>
       <c r="AM5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1742,16 +1760,16 @@
         <v>2.09</v>
       </c>
       <c r="AK6">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="AL6">
-        <v>0.2200956937799043</v>
+        <v>0.22009569377990429</v>
       </c>
       <c r="AM6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1819,7 +1837,7 @@
         <v>3.8125</v>
       </c>
       <c r="Z7">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AA7">
         <v>3.0625</v>
@@ -1843,22 +1861,22 @@
         <v>150.625</v>
       </c>
       <c r="AI7">
-        <v>871.5000000000001</v>
+        <v>871.50000000000011</v>
       </c>
       <c r="AJ7">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="AK7">
         <v>2.75</v>
       </c>
       <c r="AL7">
-        <v>0.1044176706827308</v>
+        <v>0.10441767068273081</v>
       </c>
       <c r="AM7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1926,7 +1944,7 @@
         <v>3.8125</v>
       </c>
       <c r="Z8">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AA8">
         <v>3.0625</v>
@@ -1956,16 +1974,16 @@
         <v>1.69</v>
       </c>
       <c r="AK8">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AL8">
-        <v>0.3017751479289942</v>
+        <v>0.30177514792899418</v>
       </c>
       <c r="AM8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2033,7 +2051,7 @@
         <v>3.8125</v>
       </c>
       <c r="Z9">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AA9">
         <v>3.0625</v>
@@ -2066,13 +2084,13 @@
         <v>2.95</v>
       </c>
       <c r="AL9">
-        <v>0.09665427509293689</v>
+        <v>9.6654275092936892E-2</v>
       </c>
       <c r="AM9" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2140,7 +2158,7 @@
         <v>3.8125</v>
       </c>
       <c r="Z10">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AA10">
         <v>3.0625</v>
@@ -2173,13 +2191,13 @@
         <v>2.95</v>
       </c>
       <c r="AL10">
-        <v>0.09665427509293689</v>
+        <v>9.6654275092936892E-2</v>
       </c>
       <c r="AM10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2247,7 +2265,7 @@
         <v>3.8125</v>
       </c>
       <c r="Z11">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AA11">
         <v>3.0625</v>
@@ -2280,13 +2298,13 @@
         <v>2.95</v>
       </c>
       <c r="AL11">
-        <v>0.09665427509293689</v>
+        <v>9.6654275092936892E-2</v>
       </c>
       <c r="AM11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2354,7 +2372,7 @@
         <v>3.75</v>
       </c>
       <c r="Z12">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AA12">
         <v>2.875</v>
@@ -2387,13 +2405,13 @@
         <v>2.75</v>
       </c>
       <c r="AL12">
-        <v>0.1506276150627615</v>
+        <v>0.15062761506276151</v>
       </c>
       <c r="AM12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2494,13 +2512,13 @@
         <v>3.49</v>
       </c>
       <c r="AL13">
-        <v>0.2508960573476703</v>
+        <v>0.25089605734767029</v>
       </c>
       <c r="AM13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2601,13 +2619,13 @@
         <v>3.2</v>
       </c>
       <c r="AL14">
-        <v>0.2355212355212357</v>
+        <v>0.23552123552123569</v>
       </c>
       <c r="AM14" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -2708,13 +2726,13 @@
         <v>3.29</v>
       </c>
       <c r="AL15">
-        <v>0.2702702702702703</v>
+        <v>0.27027027027027029</v>
       </c>
       <c r="AM15" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2815,13 +2833,13 @@
         <v>3.29</v>
       </c>
       <c r="AL16">
-        <v>0.2702702702702703</v>
+        <v>0.27027027027027029</v>
       </c>
       <c r="AM16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2922,13 +2940,13 @@
         <v>3.29</v>
       </c>
       <c r="AL17">
-        <v>0.2702702702702703</v>
+        <v>0.27027027027027029</v>
       </c>
       <c r="AM17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -3011,13 +3029,13 @@
         <v>2.15</v>
       </c>
       <c r="AL18">
-        <v>0.303030303030303</v>
+        <v>0.30303030303030298</v>
       </c>
       <c r="AM18" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -3115,7 +3133,7 @@
         <v>2255</v>
       </c>
       <c r="AJ19">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="AK19">
         <v>2.6</v>
@@ -3127,7 +3145,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -3237,7 +3255,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -3347,7 +3365,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -3457,7 +3475,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -3567,7 +3585,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -3677,7 +3695,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -3769,13 +3787,13 @@
         <v>2.5</v>
       </c>
       <c r="AL25">
-        <v>0.2562814070351759</v>
+        <v>0.25628140703517588</v>
       </c>
       <c r="AM25" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -3879,13 +3897,13 @@
         <v>2.5</v>
       </c>
       <c r="AL26">
-        <v>0.2562814070351759</v>
+        <v>0.25628140703517588</v>
       </c>
       <c r="AM26" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -3989,13 +4007,13 @@
         <v>2.5</v>
       </c>
       <c r="AL27">
-        <v>0.2562814070351759</v>
+        <v>0.25628140703517588</v>
       </c>
       <c r="AM27" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -4099,13 +4117,13 @@
         <v>2.5</v>
       </c>
       <c r="AL28">
-        <v>0.2562814070351759</v>
+        <v>0.25628140703517588</v>
       </c>
       <c r="AM28" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -4209,13 +4227,13 @@
         <v>2.5</v>
       </c>
       <c r="AL29">
-        <v>0.2562814070351759</v>
+        <v>0.25628140703517588</v>
       </c>
       <c r="AM29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -4319,13 +4337,13 @@
         <v>2.5</v>
       </c>
       <c r="AL30">
-        <v>0.2562814070351759</v>
+        <v>0.25628140703517588</v>
       </c>
       <c r="AM30" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -4429,13 +4447,13 @@
         <v>2.5</v>
       </c>
       <c r="AL31">
-        <v>0.2562814070351759</v>
+        <v>0.25628140703517588</v>
       </c>
       <c r="AM31" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -4539,13 +4557,13 @@
         <v>2.5</v>
       </c>
       <c r="AL32">
-        <v>0.2562814070351759</v>
+        <v>0.25628140703517588</v>
       </c>
       <c r="AM32" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -4649,13 +4667,13 @@
         <v>2.5</v>
       </c>
       <c r="AL33">
-        <v>0.2562814070351759</v>
+        <v>0.25628140703517588</v>
       </c>
       <c r="AM33" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -4759,13 +4777,13 @@
         <v>2.5</v>
       </c>
       <c r="AL34">
-        <v>0.2562814070351759</v>
+        <v>0.25628140703517588</v>
       </c>
       <c r="AM34" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -4875,7 +4893,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -4985,7 +5003,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -5083,7 +5101,7 @@
         <v>1743</v>
       </c>
       <c r="AJ37">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="AK37">
         <v>3.05</v>
@@ -5095,7 +5113,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -5205,7 +5223,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -5315,7 +5333,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5413,7 +5431,7 @@
         <v>1743</v>
       </c>
       <c r="AJ40">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="AK40">
         <v>3.05</v>
@@ -5425,7 +5443,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -5523,7 +5541,7 @@
         <v>1743</v>
       </c>
       <c r="AJ41">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="AK41">
         <v>3.05</v>
@@ -5535,7 +5553,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -5633,7 +5651,7 @@
         <v>1743</v>
       </c>
       <c r="AJ42">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="AK42">
         <v>3.05</v>
@@ -5645,7 +5663,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -5743,7 +5761,7 @@
         <v>1743</v>
       </c>
       <c r="AJ43">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="AK43">
         <v>3.05</v>
@@ -5755,7 +5773,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -5853,7 +5871,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -5951,7 +5969,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -6049,7 +6067,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -6147,7 +6165,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -6218,7 +6236,7 @@
         <v>4.25</v>
       </c>
       <c r="Z48">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="AA48">
         <v>3.0625</v>
@@ -6239,7 +6257,7 @@
         <v>350</v>
       </c>
       <c r="AH48">
-        <v>456.8750000000001</v>
+        <v>456.87500000000011</v>
       </c>
       <c r="AI48">
         <v>1256.5</v>
@@ -6257,7 +6275,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -6328,7 +6346,7 @@
         <v>4.25</v>
       </c>
       <c r="Z49">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="AA49">
         <v>3.0625</v>
@@ -6349,7 +6367,7 @@
         <v>350</v>
       </c>
       <c r="AH49">
-        <v>456.8750000000001</v>
+        <v>456.87500000000011</v>
       </c>
       <c r="AI49">
         <v>1256.5</v>
@@ -6367,7 +6385,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -6438,7 +6456,7 @@
         <v>4.25</v>
       </c>
       <c r="Z50">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="AA50">
         <v>3.0625</v>
@@ -6459,7 +6477,7 @@
         <v>350</v>
       </c>
       <c r="AH50">
-        <v>456.8750000000001</v>
+        <v>456.87500000000011</v>
       </c>
       <c r="AI50">
         <v>1256.5</v>
@@ -6477,7 +6495,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -6548,7 +6566,7 @@
         <v>4.25</v>
       </c>
       <c r="Z51">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="AA51">
         <v>3.0625</v>
@@ -6569,7 +6587,7 @@
         <v>350</v>
       </c>
       <c r="AH51">
-        <v>456.8750000000001</v>
+        <v>456.87500000000011</v>
       </c>
       <c r="AI51">
         <v>1256.5</v>
@@ -6587,7 +6605,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -6688,16 +6706,16 @@
         <v>1.69</v>
       </c>
       <c r="AK52">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AL52">
-        <v>0.3017751479289942</v>
+        <v>0.30177514792899418</v>
       </c>
       <c r="AM52" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -6801,13 +6819,13 @@
         <v>1.95</v>
       </c>
       <c r="AL53">
-        <v>0.4028776978417267</v>
+        <v>0.40287769784172672</v>
       </c>
       <c r="AM53" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -6899,13 +6917,13 @@
         <v>2.85</v>
       </c>
       <c r="AL54">
-        <v>0.3255813953488373</v>
+        <v>0.32558139534883729</v>
       </c>
       <c r="AM54" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -6997,13 +7015,13 @@
         <v>2.85</v>
       </c>
       <c r="AL55">
-        <v>0.3255813953488373</v>
+        <v>0.32558139534883729</v>
       </c>
       <c r="AM55" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -7101,7 +7119,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -7193,13 +7211,13 @@
         <v>2.35</v>
       </c>
       <c r="AL57">
-        <v>0.3128491620111732</v>
+        <v>0.31284916201117319</v>
       </c>
       <c r="AM57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -7303,13 +7321,13 @@
         <v>2.85</v>
       </c>
       <c r="AL58">
-        <v>0.2445414847161572</v>
+        <v>0.24454148471615719</v>
       </c>
       <c r="AM58" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -7413,13 +7431,13 @@
         <v>2.85</v>
       </c>
       <c r="AL59">
-        <v>0.2445414847161572</v>
+        <v>0.24454148471615719</v>
       </c>
       <c r="AM59" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -7523,13 +7541,13 @@
         <v>2.85</v>
       </c>
       <c r="AL60">
-        <v>0.2445414847161572</v>
+        <v>0.24454148471615719</v>
       </c>
       <c r="AM60" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -7633,13 +7651,13 @@
         <v>2.85</v>
       </c>
       <c r="AL61">
-        <v>0.2445414847161572</v>
+        <v>0.24454148471615719</v>
       </c>
       <c r="AM61" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -7749,7 +7767,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -7859,7 +7877,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -7930,7 +7948,7 @@
         <v>4.625</v>
       </c>
       <c r="Z64">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AA64">
         <v>2.875</v>
@@ -7951,7 +7969,7 @@
         <v>700</v>
       </c>
       <c r="AH64">
-        <v>430.6249999999999</v>
+        <v>430.62499999999989</v>
       </c>
       <c r="AI64">
         <v>1463</v>
@@ -7963,13 +7981,13 @@
         <v>2.65</v>
       </c>
       <c r="AL64">
-        <v>0.2679425837320575</v>
+        <v>0.26794258373205748</v>
       </c>
       <c r="AM64" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -8040,7 +8058,7 @@
         <v>4.625</v>
       </c>
       <c r="Z65">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AA65">
         <v>2.875</v>
@@ -8061,7 +8079,7 @@
         <v>700</v>
       </c>
       <c r="AH65">
-        <v>430.6249999999999</v>
+        <v>430.62499999999989</v>
       </c>
       <c r="AI65">
         <v>1463</v>
@@ -8073,13 +8091,13 @@
         <v>2.65</v>
       </c>
       <c r="AL65">
-        <v>0.2679425837320575</v>
+        <v>0.26794258373205748</v>
       </c>
       <c r="AM65" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -8150,7 +8168,7 @@
         <v>4.625</v>
       </c>
       <c r="Z66">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AA66">
         <v>2.875</v>
@@ -8171,7 +8189,7 @@
         <v>700</v>
       </c>
       <c r="AH66">
-        <v>430.6249999999999</v>
+        <v>430.62499999999989</v>
       </c>
       <c r="AI66">
         <v>1463</v>
@@ -8183,13 +8201,13 @@
         <v>2.65</v>
       </c>
       <c r="AL66">
-        <v>0.2679425837320575</v>
+        <v>0.26794258373205748</v>
       </c>
       <c r="AM66" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -8260,7 +8278,7 @@
         <v>4.625</v>
       </c>
       <c r="Z67">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AA67">
         <v>2.875</v>
@@ -8281,7 +8299,7 @@
         <v>700</v>
       </c>
       <c r="AH67">
-        <v>430.6249999999999</v>
+        <v>430.62499999999989</v>
       </c>
       <c r="AI67">
         <v>1463</v>
@@ -8293,13 +8311,13 @@
         <v>2.65</v>
       </c>
       <c r="AL67">
-        <v>0.2679425837320575</v>
+        <v>0.26794258373205748</v>
       </c>
       <c r="AM67" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -8391,13 +8409,13 @@
         <v>2.7</v>
       </c>
       <c r="AL68">
-        <v>0.2558139534883722</v>
+        <v>0.25581395348837221</v>
       </c>
       <c r="AM68" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>39</v>
       </c>
@@ -8456,7 +8474,7 @@
         <v>1.9375</v>
       </c>
       <c r="Z69">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AA69" t="s">
         <v>205</v>
@@ -8489,13 +8507,13 @@
         <v>2.7</v>
       </c>
       <c r="AL69">
-        <v>0.2558139534883722</v>
+        <v>0.25581395348837221</v>
       </c>
       <c r="AM69" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -8587,13 +8605,13 @@
         <v>2.7</v>
       </c>
       <c r="AL70">
-        <v>0.2558139534883722</v>
+        <v>0.25581395348837221</v>
       </c>
       <c r="AM70" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -8679,7 +8697,7 @@
         <v>2.7</v>
       </c>
       <c r="AL71">
-        <v>0.2558139534883722</v>
+        <v>0.25581395348837221</v>
       </c>
       <c r="AM71" t="s">
         <v>227</v>

--- a/cleaned.xlsx
+++ b/cleaned.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smarnita/Documents/flushPackagingProject/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC104C0-21CE-504E-B575-4BCFDCA216E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -745,8 +739,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,21 +803,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -861,7 +847,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -895,7 +881,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -930,10 +915,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1106,16 +1090,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1216,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1335,13 +1317,13 @@
         <v>2.8</v>
       </c>
       <c r="AL2">
-        <v>0.27853881278538811</v>
+        <v>0.2785388127853881</v>
       </c>
       <c r="AM2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1442,13 +1424,13 @@
         <v>2.8</v>
       </c>
       <c r="AL3">
-        <v>0.27853881278538811</v>
+        <v>0.2785388127853881</v>
       </c>
       <c r="AM3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1549,13 +1531,13 @@
         <v>2.8</v>
       </c>
       <c r="AL4">
-        <v>0.27853881278538811</v>
+        <v>0.2785388127853881</v>
       </c>
       <c r="AM4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1656,13 +1638,13 @@
         <v>2.5</v>
       </c>
       <c r="AL5">
-        <v>0.14155251141552511</v>
+        <v>0.1415525114155251</v>
       </c>
       <c r="AM5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1760,16 +1742,16 @@
         <v>2.09</v>
       </c>
       <c r="AK6">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="AL6">
-        <v>0.22009569377990429</v>
+        <v>0.2200956937799043</v>
       </c>
       <c r="AM6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1837,7 +1819,7 @@
         <v>3.8125</v>
       </c>
       <c r="Z7">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AA7">
         <v>3.0625</v>
@@ -1861,22 +1843,22 @@
         <v>150.625</v>
       </c>
       <c r="AI7">
-        <v>871.50000000000011</v>
+        <v>871.5000000000001</v>
       </c>
       <c r="AJ7">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="AK7">
         <v>2.75</v>
       </c>
       <c r="AL7">
-        <v>0.10441767068273081</v>
+        <v>0.1044176706827308</v>
       </c>
       <c r="AM7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1944,7 +1926,7 @@
         <v>3.8125</v>
       </c>
       <c r="Z8">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AA8">
         <v>3.0625</v>
@@ -1974,16 +1956,16 @@
         <v>1.69</v>
       </c>
       <c r="AK8">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AL8">
-        <v>0.30177514792899418</v>
+        <v>0.3017751479289942</v>
       </c>
       <c r="AM8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2051,7 +2033,7 @@
         <v>3.8125</v>
       </c>
       <c r="Z9">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AA9">
         <v>3.0625</v>
@@ -2084,13 +2066,13 @@
         <v>2.95</v>
       </c>
       <c r="AL9">
-        <v>9.6654275092936892E-2</v>
+        <v>0.09665427509293689</v>
       </c>
       <c r="AM9" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2158,7 +2140,7 @@
         <v>3.8125</v>
       </c>
       <c r="Z10">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AA10">
         <v>3.0625</v>
@@ -2191,13 +2173,13 @@
         <v>2.95</v>
       </c>
       <c r="AL10">
-        <v>9.6654275092936892E-2</v>
+        <v>0.09665427509293689</v>
       </c>
       <c r="AM10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2265,7 +2247,7 @@
         <v>3.8125</v>
       </c>
       <c r="Z11">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AA11">
         <v>3.0625</v>
@@ -2298,13 +2280,13 @@
         <v>2.95</v>
       </c>
       <c r="AL11">
-        <v>9.6654275092936892E-2</v>
+        <v>0.09665427509293689</v>
       </c>
       <c r="AM11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2372,7 +2354,7 @@
         <v>3.75</v>
       </c>
       <c r="Z12">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AA12">
         <v>2.875</v>
@@ -2405,13 +2387,13 @@
         <v>2.75</v>
       </c>
       <c r="AL12">
-        <v>0.15062761506276151</v>
+        <v>0.1506276150627615</v>
       </c>
       <c r="AM12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2512,13 +2494,13 @@
         <v>3.49</v>
       </c>
       <c r="AL13">
-        <v>0.25089605734767029</v>
+        <v>0.2508960573476703</v>
       </c>
       <c r="AM13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2619,13 +2601,13 @@
         <v>3.2</v>
       </c>
       <c r="AL14">
-        <v>0.23552123552123569</v>
+        <v>0.2355212355212357</v>
       </c>
       <c r="AM14" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -2726,13 +2708,13 @@
         <v>3.29</v>
       </c>
       <c r="AL15">
-        <v>0.27027027027027029</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="AM15" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2833,13 +2815,13 @@
         <v>3.29</v>
       </c>
       <c r="AL16">
-        <v>0.27027027027027029</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="AM16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2940,13 +2922,13 @@
         <v>3.29</v>
       </c>
       <c r="AL17">
-        <v>0.27027027027027029</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="AM17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -3029,13 +3011,13 @@
         <v>2.15</v>
       </c>
       <c r="AL18">
-        <v>0.30303030303030298</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="AM18" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -3133,7 +3115,7 @@
         <v>2255</v>
       </c>
       <c r="AJ19">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="AK19">
         <v>2.6</v>
@@ -3145,7 +3127,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -3255,7 +3237,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -3365,7 +3347,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -3475,7 +3457,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -3585,7 +3567,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -3695,7 +3677,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -3787,13 +3769,13 @@
         <v>2.5</v>
       </c>
       <c r="AL25">
-        <v>0.25628140703517588</v>
+        <v>0.2562814070351759</v>
       </c>
       <c r="AM25" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -3897,13 +3879,13 @@
         <v>2.5</v>
       </c>
       <c r="AL26">
-        <v>0.25628140703517588</v>
+        <v>0.2562814070351759</v>
       </c>
       <c r="AM26" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -4007,13 +3989,13 @@
         <v>2.5</v>
       </c>
       <c r="AL27">
-        <v>0.25628140703517588</v>
+        <v>0.2562814070351759</v>
       </c>
       <c r="AM27" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -4117,13 +4099,13 @@
         <v>2.5</v>
       </c>
       <c r="AL28">
-        <v>0.25628140703517588</v>
+        <v>0.2562814070351759</v>
       </c>
       <c r="AM28" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -4227,13 +4209,13 @@
         <v>2.5</v>
       </c>
       <c r="AL29">
-        <v>0.25628140703517588</v>
+        <v>0.2562814070351759</v>
       </c>
       <c r="AM29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -4337,13 +4319,13 @@
         <v>2.5</v>
       </c>
       <c r="AL30">
-        <v>0.25628140703517588</v>
+        <v>0.2562814070351759</v>
       </c>
       <c r="AM30" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -4447,13 +4429,13 @@
         <v>2.5</v>
       </c>
       <c r="AL31">
-        <v>0.25628140703517588</v>
+        <v>0.2562814070351759</v>
       </c>
       <c r="AM31" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -4557,13 +4539,13 @@
         <v>2.5</v>
       </c>
       <c r="AL32">
-        <v>0.25628140703517588</v>
+        <v>0.2562814070351759</v>
       </c>
       <c r="AM32" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -4667,13 +4649,13 @@
         <v>2.5</v>
       </c>
       <c r="AL33">
-        <v>0.25628140703517588</v>
+        <v>0.2562814070351759</v>
       </c>
       <c r="AM33" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -4777,13 +4759,13 @@
         <v>2.5</v>
       </c>
       <c r="AL34">
-        <v>0.25628140703517588</v>
+        <v>0.2562814070351759</v>
       </c>
       <c r="AM34" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -4893,7 +4875,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -5003,7 +4985,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -5101,7 +5083,7 @@
         <v>1743</v>
       </c>
       <c r="AJ37">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="AK37">
         <v>3.05</v>
@@ -5113,7 +5095,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -5223,7 +5205,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -5333,7 +5315,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5431,7 +5413,7 @@
         <v>1743</v>
       </c>
       <c r="AJ40">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="AK40">
         <v>3.05</v>
@@ -5443,7 +5425,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -5541,7 +5523,7 @@
         <v>1743</v>
       </c>
       <c r="AJ41">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="AK41">
         <v>3.05</v>
@@ -5553,7 +5535,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -5651,7 +5633,7 @@
         <v>1743</v>
       </c>
       <c r="AJ42">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="AK42">
         <v>3.05</v>
@@ -5663,7 +5645,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -5761,7 +5743,7 @@
         <v>1743</v>
       </c>
       <c r="AJ43">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="AK43">
         <v>3.05</v>
@@ -5773,7 +5755,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -5871,7 +5853,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -5969,7 +5951,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -6067,7 +6049,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -6165,7 +6147,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -6236,7 +6218,7 @@
         <v>4.25</v>
       </c>
       <c r="Z48">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="AA48">
         <v>3.0625</v>
@@ -6257,7 +6239,7 @@
         <v>350</v>
       </c>
       <c r="AH48">
-        <v>456.87500000000011</v>
+        <v>456.8750000000001</v>
       </c>
       <c r="AI48">
         <v>1256.5</v>
@@ -6275,7 +6257,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -6346,7 +6328,7 @@
         <v>4.25</v>
       </c>
       <c r="Z49">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="AA49">
         <v>3.0625</v>
@@ -6367,7 +6349,7 @@
         <v>350</v>
       </c>
       <c r="AH49">
-        <v>456.87500000000011</v>
+        <v>456.8750000000001</v>
       </c>
       <c r="AI49">
         <v>1256.5</v>
@@ -6385,7 +6367,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -6456,7 +6438,7 @@
         <v>4.25</v>
       </c>
       <c r="Z50">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="AA50">
         <v>3.0625</v>
@@ -6477,7 +6459,7 @@
         <v>350</v>
       </c>
       <c r="AH50">
-        <v>456.87500000000011</v>
+        <v>456.8750000000001</v>
       </c>
       <c r="AI50">
         <v>1256.5</v>
@@ -6495,7 +6477,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -6566,7 +6548,7 @@
         <v>4.25</v>
       </c>
       <c r="Z51">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="AA51">
         <v>3.0625</v>
@@ -6587,7 +6569,7 @@
         <v>350</v>
       </c>
       <c r="AH51">
-        <v>456.87500000000011</v>
+        <v>456.8750000000001</v>
       </c>
       <c r="AI51">
         <v>1256.5</v>
@@ -6605,7 +6587,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -6706,16 +6688,16 @@
         <v>1.69</v>
       </c>
       <c r="AK52">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AL52">
-        <v>0.30177514792899418</v>
+        <v>0.3017751479289942</v>
       </c>
       <c r="AM52" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -6819,13 +6801,13 @@
         <v>1.95</v>
       </c>
       <c r="AL53">
-        <v>0.40287769784172672</v>
+        <v>0.4028776978417267</v>
       </c>
       <c r="AM53" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -6917,13 +6899,13 @@
         <v>2.85</v>
       </c>
       <c r="AL54">
-        <v>0.32558139534883729</v>
+        <v>0.3255813953488373</v>
       </c>
       <c r="AM54" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -7015,13 +6997,13 @@
         <v>2.85</v>
       </c>
       <c r="AL55">
-        <v>0.32558139534883729</v>
+        <v>0.3255813953488373</v>
       </c>
       <c r="AM55" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -7119,7 +7101,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -7211,13 +7193,13 @@
         <v>2.35</v>
       </c>
       <c r="AL57">
-        <v>0.31284916201117319</v>
+        <v>0.3128491620111732</v>
       </c>
       <c r="AM57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -7321,13 +7303,13 @@
         <v>2.85</v>
       </c>
       <c r="AL58">
-        <v>0.24454148471615719</v>
+        <v>0.2445414847161572</v>
       </c>
       <c r="AM58" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -7431,13 +7413,13 @@
         <v>2.85</v>
       </c>
       <c r="AL59">
-        <v>0.24454148471615719</v>
+        <v>0.2445414847161572</v>
       </c>
       <c r="AM59" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -7541,13 +7523,13 @@
         <v>2.85</v>
       </c>
       <c r="AL60">
-        <v>0.24454148471615719</v>
+        <v>0.2445414847161572</v>
       </c>
       <c r="AM60" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -7651,13 +7633,13 @@
         <v>2.85</v>
       </c>
       <c r="AL61">
-        <v>0.24454148471615719</v>
+        <v>0.2445414847161572</v>
       </c>
       <c r="AM61" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -7767,7 +7749,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -7877,7 +7859,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -7948,7 +7930,7 @@
         <v>4.625</v>
       </c>
       <c r="Z64">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA64">
         <v>2.875</v>
@@ -7969,7 +7951,7 @@
         <v>700</v>
       </c>
       <c r="AH64">
-        <v>430.62499999999989</v>
+        <v>430.6249999999999</v>
       </c>
       <c r="AI64">
         <v>1463</v>
@@ -7981,13 +7963,13 @@
         <v>2.65</v>
       </c>
       <c r="AL64">
-        <v>0.26794258373205748</v>
+        <v>0.2679425837320575</v>
       </c>
       <c r="AM64" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -8058,7 +8040,7 @@
         <v>4.625</v>
       </c>
       <c r="Z65">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA65">
         <v>2.875</v>
@@ -8079,7 +8061,7 @@
         <v>700</v>
       </c>
       <c r="AH65">
-        <v>430.62499999999989</v>
+        <v>430.6249999999999</v>
       </c>
       <c r="AI65">
         <v>1463</v>
@@ -8091,13 +8073,13 @@
         <v>2.65</v>
       </c>
       <c r="AL65">
-        <v>0.26794258373205748</v>
+        <v>0.2679425837320575</v>
       </c>
       <c r="AM65" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -8168,7 +8150,7 @@
         <v>4.625</v>
       </c>
       <c r="Z66">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA66">
         <v>2.875</v>
@@ -8189,7 +8171,7 @@
         <v>700</v>
       </c>
       <c r="AH66">
-        <v>430.62499999999989</v>
+        <v>430.6249999999999</v>
       </c>
       <c r="AI66">
         <v>1463</v>
@@ -8201,13 +8183,13 @@
         <v>2.65</v>
       </c>
       <c r="AL66">
-        <v>0.26794258373205748</v>
+        <v>0.2679425837320575</v>
       </c>
       <c r="AM66" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -8278,7 +8260,7 @@
         <v>4.625</v>
       </c>
       <c r="Z67">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA67">
         <v>2.875</v>
@@ -8299,7 +8281,7 @@
         <v>700</v>
       </c>
       <c r="AH67">
-        <v>430.62499999999989</v>
+        <v>430.6249999999999</v>
       </c>
       <c r="AI67">
         <v>1463</v>
@@ -8311,13 +8293,13 @@
         <v>2.65</v>
       </c>
       <c r="AL67">
-        <v>0.26794258373205748</v>
+        <v>0.2679425837320575</v>
       </c>
       <c r="AM67" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -8409,13 +8391,13 @@
         <v>2.7</v>
       </c>
       <c r="AL68">
-        <v>0.25581395348837221</v>
+        <v>0.2558139534883722</v>
       </c>
       <c r="AM68" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
         <v>39</v>
       </c>
@@ -8474,7 +8456,7 @@
         <v>1.9375</v>
       </c>
       <c r="Z69">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AA69" t="s">
         <v>205</v>
@@ -8507,13 +8489,13 @@
         <v>2.7</v>
       </c>
       <c r="AL69">
-        <v>0.25581395348837221</v>
+        <v>0.2558139534883722</v>
       </c>
       <c r="AM69" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -8605,13 +8587,13 @@
         <v>2.7</v>
       </c>
       <c r="AL70">
-        <v>0.25581395348837221</v>
+        <v>0.2558139534883722</v>
       </c>
       <c r="AM70" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -8697,7 +8679,7 @@
         <v>2.7</v>
       </c>
       <c r="AL71">
-        <v>0.25581395348837221</v>
+        <v>0.2558139534883722</v>
       </c>
       <c r="AM71" t="s">
         <v>227</v>
